--- a/activity计划v1.xlsx
+++ b/activity计划v1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project-gxs\需求\201806_工作流引擎\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github-program\springboot-activiti\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{D42358CA-6F08-4E38-98C9-F75E55C29B65}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{13DBFD40-AB35-4B94-8FD3-E0B933342E40}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23892" windowHeight="10356" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -117,9 +117,6 @@
     <t>秦森/陈明杨</t>
   </si>
   <si>
-    <t>单用户流转</t>
-  </si>
-  <si>
     <t>用户组流转</t>
   </si>
   <si>
@@ -156,6 +153,10 @@
   </si>
   <si>
     <t>两种方式部署流程模板开发，源文件&amp;&amp;zip</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>单用户流转，查询任务界面</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -175,12 +176,14 @@
       <sz val="10.5"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -228,11 +231,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -551,16 +554,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="4"/>
+      <c r="C2" s="5"/>
       <c r="D2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="5" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="3" t="s">
@@ -568,19 +571,19 @@
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B4" s="4"/>
+      <c r="B4" s="5"/>
       <c r="C4" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B5" s="4"/>
+      <c r="B5" s="5"/>
       <c r="C5" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B6" s="4"/>
+      <c r="B6" s="5"/>
       <c r="C6" s="3" t="s">
         <v>6</v>
       </c>
@@ -589,7 +592,7 @@
       <c r="C7" s="3"/>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C8" s="3" t="s">
@@ -597,13 +600,13 @@
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B9" s="4"/>
+      <c r="B9" s="5"/>
       <c r="C9" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B10" s="4"/>
+      <c r="B10" s="5"/>
       <c r="C10" s="3" t="s">
         <v>10</v>
       </c>
@@ -614,7 +617,7 @@
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="5" t="s">
         <v>12</v>
       </c>
       <c r="C12" s="3" t="s">
@@ -622,13 +625,13 @@
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B13" s="4"/>
+      <c r="B13" s="5"/>
       <c r="C13" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="14" spans="2:4" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="4"/>
+      <c r="B14" s="5"/>
       <c r="C14" s="3" t="s">
         <v>15</v>
       </c>
@@ -679,7 +682,7 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -744,19 +747,19 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>41</v>
+      <c r="A5" s="4" t="s">
+        <v>40</v>
       </c>
       <c r="B5" s="1">
         <v>43280</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
         <v>42</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
-        <v>43</v>
       </c>
       <c r="B6" s="1">
         <v>43280</v>
@@ -769,8 +772,8 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>31</v>
+      <c r="A7" s="4" t="s">
+        <v>43</v>
       </c>
       <c r="B7" s="1">
         <v>43280</v>
@@ -781,7 +784,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -789,7 +792,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C9" t="s">
         <v>26</v>
@@ -797,7 +800,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
@@ -805,7 +808,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C11" t="s">
         <v>26</v>
@@ -813,7 +816,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
@@ -821,7 +824,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C13" t="s">
         <v>26</v>
@@ -829,7 +832,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -837,7 +840,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -845,7 +848,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C16" t="s">
         <v>26</v>

--- a/activity计划v1.xlsx
+++ b/activity计划v1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github-program\springboot-activiti\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{13DBFD40-AB35-4B94-8FD3-E0B933342E40}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{9CA0728C-F6D3-4B09-B288-BA0C32B2568E}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23892" windowHeight="10356" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="45">
   <si>
     <t>功能点</t>
   </si>
@@ -135,13 +135,7 @@
     <t>serviceTask学习及应用</t>
   </si>
   <si>
-    <t>receiveTask学习及应用</t>
-  </si>
-  <si>
     <t>查看动态流程图</t>
-  </si>
-  <si>
-    <t>子流程学习</t>
   </si>
   <si>
     <t>合同审批任务发起界面、后台开发</t>
@@ -156,7 +150,19 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>单用户流转，查询任务界面</t>
+    <t>单用户流转，按用户查询任务</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>receiveTask学习及应用</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>子流程学习及流程应用</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>完整的流程流转联调及测试</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -679,10 +685,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -745,21 +751,24 @@
       <c r="C4" t="s">
         <v>30</v>
       </c>
+      <c r="D4" s="2">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B5" s="1">
         <v>43280</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B6" s="1">
         <v>43280</v>
@@ -773,13 +782,16 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B7" s="1">
         <v>43280</v>
       </c>
       <c r="C7" t="s">
         <v>26</v>
+      </c>
+      <c r="D7" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -797,6 +809,9 @@
       <c r="C9" t="s">
         <v>26</v>
       </c>
+      <c r="D9" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -831,8 +846,8 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>37</v>
+      <c r="A14" s="4" t="s">
+        <v>42</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -840,18 +855,26 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>39</v>
+      <c r="A16" s="4" t="s">
+        <v>43</v>
       </c>
       <c r="C16" t="s">
         <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/activity计划v1.xlsx
+++ b/activity计划v1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github-program\springboot-activiti\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{9CA0728C-F6D3-4B09-B288-BA0C32B2568E}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{315F0A0D-C416-4263-B72E-2BE2C939BEA5}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23892" windowHeight="10356" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="46">
   <si>
     <t>功能点</t>
   </si>
@@ -163,6 +163,10 @@
   </si>
   <si>
     <t>完整的流程流转联调及测试</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>秦森</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -688,7 +692,7 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -798,16 +802,19 @@
       <c r="A8" t="s">
         <v>31</v>
       </c>
-      <c r="C8" t="s">
-        <v>28</v>
+      <c r="C8" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0.5</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>32</v>
       </c>
-      <c r="C9" t="s">
-        <v>26</v>
+      <c r="C9" s="4" t="s">
+        <v>45</v>
       </c>
       <c r="D9" s="2">
         <v>1</v>
@@ -817,8 +824,11 @@
       <c r="A10" t="s">
         <v>33</v>
       </c>
-      <c r="C10" t="s">
-        <v>28</v>
+      <c r="C10" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -828,6 +838,9 @@
       <c r="C11" t="s">
         <v>26</v>
       </c>
+      <c r="D11" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -865,8 +878,8 @@
       <c r="A16" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C16" t="s">
-        <v>26</v>
+      <c r="C16" s="4" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">

--- a/activity计划v1.xlsx
+++ b/activity计划v1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github-program\springboot-activiti\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{315F0A0D-C416-4263-B72E-2BE2C939BEA5}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{A9601919-A3CB-4368-821B-E0E2E393F496}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23892" windowHeight="10356" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="48">
   <si>
     <t>功能点</t>
   </si>
@@ -114,59 +114,68 @@
     <t>合同审批流程图</t>
   </si>
   <si>
+    <t>用户组流转</t>
+  </si>
+  <si>
+    <t>消息开始事件学习及应用</t>
+  </si>
+  <si>
+    <t>错误结束事件学习及应用</t>
+  </si>
+  <si>
+    <t>排他网关、并行网关学习及应用</t>
+  </si>
+  <si>
+    <t>包含网关学习及应用</t>
+  </si>
+  <si>
+    <t>serviceTask学习及应用</t>
+  </si>
+  <si>
+    <t>查看动态流程图</t>
+  </si>
+  <si>
+    <t>合同审批任务发起界面、后台开发</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈明阳</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>两种方式部署流程模板开发，源文件&amp;&amp;zip</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>单用户流转，按用户查询任务</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>receiveTask学习及应用</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>子流程学习及流程应用</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>完整的流程流转联调及测试</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>秦森</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>秦森</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈明杨</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>秦森/陈明杨</t>
-  </si>
-  <si>
-    <t>用户组流转</t>
-  </si>
-  <si>
-    <t>消息开始事件学习及应用</t>
-  </si>
-  <si>
-    <t>错误结束事件学习及应用</t>
-  </si>
-  <si>
-    <t>排他网关、并行网关学习及应用</t>
-  </si>
-  <si>
-    <t>包含网关学习及应用</t>
-  </si>
-  <si>
-    <t>serviceTask学习及应用</t>
-  </si>
-  <si>
-    <t>查看动态流程图</t>
-  </si>
-  <si>
-    <t>合同审批任务发起界面、后台开发</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>陈明阳</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>两种方式部署流程模板开发，源文件&amp;&amp;zip</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>单用户流转，按用户查询任务</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>receiveTask学习及应用</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>子流程学习及流程应用</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>完整的流程流转联调及测试</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>秦森</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -692,14 +701,14 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="41.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.77734375" customWidth="1"/>
-    <col min="3" max="3" width="11.5546875" customWidth="1"/>
+    <col min="2" max="2" width="12.77734375" customWidth="1"/>
+    <col min="3" max="3" width="18.109375" customWidth="1"/>
     <col min="4" max="4" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -752,8 +761,8 @@
       <c r="B4" s="1">
         <v>43279</v>
       </c>
-      <c r="C4" t="s">
-        <v>30</v>
+      <c r="C4" s="4" t="s">
+        <v>46</v>
       </c>
       <c r="D4" s="2">
         <v>0.5</v>
@@ -761,18 +770,21 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B5" s="1">
         <v>43280</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
+      </c>
+      <c r="D5" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B6" s="1">
         <v>43280</v>
@@ -786,7 +798,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B7" s="1">
         <v>43280</v>
@@ -800,21 +812,27 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>31</v>
+        <v>30</v>
+      </c>
+      <c r="B8" s="1">
+        <v>43283</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D8" s="2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>32</v>
+        <v>31</v>
+      </c>
+      <c r="B9" s="1">
+        <v>43283</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D9" s="2">
         <v>1</v>
@@ -822,10 +840,13 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>33</v>
+        <v>32</v>
+      </c>
+      <c r="B10" s="1">
+        <v>43283</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D10" s="2">
         <v>1</v>
@@ -833,7 +854,10 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>34</v>
+        <v>33</v>
+      </c>
+      <c r="B11" s="1">
+        <v>43284</v>
       </c>
       <c r="C11" t="s">
         <v>26</v>
@@ -843,51 +867,66 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>35</v>
-      </c>
-      <c r="C12" t="s">
-        <v>28</v>
+      <c r="A12" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" s="1">
+        <v>43284</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C13" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C14" t="s">
-        <v>28</v>
-      </c>
-    </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>37</v>
+      <c r="A15" s="4" t="s">
+        <v>41</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
-        <v>43</v>
+      <c r="A16" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" s="1">
+        <v>43285</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D16" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C17" t="s">
-        <v>30</v>
+        <v>43</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D17" s="2">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
